--- a/Homework/project04/stats.xlsx
+++ b/Homework/project04/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Documents/GitHub/ECE252/Homework/project04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F02932E-B905-6744-A9A5-57BE6EAB4B65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA6E80-DDD6-9F46-840D-1532A90E9B86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="14320" windowHeight="14740" xr2:uid="{97F3EACF-958F-2448-9D99-5C2D34F79B08}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="14320" windowHeight="14720" xr2:uid="{97F3EACF-958F-2448-9D99-5C2D34F79B08}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>n</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Leg last</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8255A1-7057-E348-9460-2E20924D9703}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -416,7 +422,7 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +430,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -437,8 +443,17 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -451,8 +466,23 @@
       <c r="D4" s="2">
         <v>0.93718000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <f>AVERAGE(B4:B13)</f>
+        <v>40.290950000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <f>AVERAGE(C4:C13)</f>
+        <v>0.50976460000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <f>AVERAGE(D4:D13)</f>
+        <v>0.93714829999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -465,8 +495,23 @@
       <c r="D5" s="2">
         <v>0.93723800000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <f>STDEVA(B4:B13)</f>
+        <v>1.1856385996115401E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f>STDEVA(C4:C13)</f>
+        <v>5.442350799261408E-4</v>
+      </c>
+      <c r="I5" s="1">
+        <f>STDEVA(D4:D13)</f>
+        <v>2.1602471566414201E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -479,8 +524,16 @@
       <c r="D6" s="1">
         <v>0.93667400000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="H6" s="1">
+        <f>H4*100</f>
+        <v>50.976460000000003</v>
+      </c>
+      <c r="I6" s="1">
+        <f>I4*100</f>
+        <v>93.714829999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -493,8 +546,16 @@
       <c r="D7" s="1">
         <v>0.93728800000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="H7" s="1">
+        <f>H5*100</f>
+        <v>5.4423507992614077E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f>I5*100</f>
+        <v>2.1602471566414202E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -508,7 +569,7 @@
         <v>0.93719600000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -522,7 +583,7 @@
         <v>0.93750599999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -536,7 +597,7 @@
         <v>0.93712300000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -550,7 +611,7 @@
         <v>0.93704200000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -564,7 +625,7 @@
         <v>0.93722399999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>10</v>
       </c>
